--- a/Linear_data/Data/Amb_linear_data.xlsx
+++ b/Linear_data/Data/Amb_linear_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/dtl474_austin_eid_utexas_edu/Documents/Ambystoma/Analysis/Ambystoma/Linear_data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="343" documentId="11_6FB036433116CDFCDA5B7D3A98BD90200F9A6635" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{20A4CBB5-2BDF-D947-85CB-111931F37AAB}"/>
+  <xr:revisionPtr revIDLastSave="347" documentId="11_6FB036433116CDFCDA5B7D3A98BD90200F9A6635" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{626EEF39-93C9-3B4A-96F2-684A320B8D63}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="569">
   <si>
     <t>Specimen</t>
   </si>
@@ -1348,9 +1348,6 @@
     <t>A.tigrinum</t>
   </si>
   <si>
-    <t>TxVP</t>
-  </si>
-  <si>
     <t>A.mavortium_TNHC_106097</t>
   </si>
   <si>
@@ -1382,6 +1379,354 @@
   </si>
   <si>
     <t>A.mavortium_TNHC_91625</t>
+  </si>
+  <si>
+    <t>41229-10854</t>
+  </si>
+  <si>
+    <t>41229-10899</t>
+  </si>
+  <si>
+    <t>41229-10074</t>
+  </si>
+  <si>
+    <t>41229-10996</t>
+  </si>
+  <si>
+    <t>41229-11011</t>
+  </si>
+  <si>
+    <t>41229-11012</t>
+  </si>
+  <si>
+    <t>41229-11249</t>
+  </si>
+  <si>
+    <t>41229-25000</t>
+  </si>
+  <si>
+    <t>41229-25015</t>
+  </si>
+  <si>
+    <t>41229-25017</t>
+  </si>
+  <si>
+    <t>41229-25018</t>
+  </si>
+  <si>
+    <t>41229-25019</t>
+  </si>
+  <si>
+    <t>41229-25023</t>
+  </si>
+  <si>
+    <t>41229-25024</t>
+  </si>
+  <si>
+    <t>41229-25025</t>
+  </si>
+  <si>
+    <t>41229-25031</t>
+  </si>
+  <si>
+    <t>41229-25033</t>
+  </si>
+  <si>
+    <t>41229-25034</t>
+  </si>
+  <si>
+    <t>41229-25042</t>
+  </si>
+  <si>
+    <t>41229-25096</t>
+  </si>
+  <si>
+    <t>41229-25101</t>
+  </si>
+  <si>
+    <t>41229-25106</t>
+  </si>
+  <si>
+    <t>41229-25107</t>
+  </si>
+  <si>
+    <t>41229-25108</t>
+  </si>
+  <si>
+    <t>41229-25109</t>
+  </si>
+  <si>
+    <t>41229-25110</t>
+  </si>
+  <si>
+    <t>41229-25111</t>
+  </si>
+  <si>
+    <t>41229-25112</t>
+  </si>
+  <si>
+    <t>41229-25113</t>
+  </si>
+  <si>
+    <t>41229-25114</t>
+  </si>
+  <si>
+    <t>41229-25115</t>
+  </si>
+  <si>
+    <t>41229-25116</t>
+  </si>
+  <si>
+    <t>41229-25125</t>
+  </si>
+  <si>
+    <t>41229-25126</t>
+  </si>
+  <si>
+    <t>41229-25128</t>
+  </si>
+  <si>
+    <t>41229-25129</t>
+  </si>
+  <si>
+    <t>41229-25133</t>
+  </si>
+  <si>
+    <t>41229-25134</t>
+  </si>
+  <si>
+    <t>41229-25135</t>
+  </si>
+  <si>
+    <t>41229-25137</t>
+  </si>
+  <si>
+    <t>41229-25141</t>
+  </si>
+  <si>
+    <t>41229-25142</t>
+  </si>
+  <si>
+    <t>41229-25143</t>
+  </si>
+  <si>
+    <t>41229-25144</t>
+  </si>
+  <si>
+    <t>41229-25145</t>
+  </si>
+  <si>
+    <t>41229-25146</t>
+  </si>
+  <si>
+    <t>41229-25151</t>
+  </si>
+  <si>
+    <t>41229-25161</t>
+  </si>
+  <si>
+    <t>41229-25163</t>
+  </si>
+  <si>
+    <t>41229-25164</t>
+  </si>
+  <si>
+    <t>41229-25165</t>
+  </si>
+  <si>
+    <t>41229-25167</t>
+  </si>
+  <si>
+    <t>41229-25172</t>
+  </si>
+  <si>
+    <t>41229-25173</t>
+  </si>
+  <si>
+    <t>41229-25174</t>
+  </si>
+  <si>
+    <t>41229-25176</t>
+  </si>
+  <si>
+    <t>41229-25177</t>
+  </si>
+  <si>
+    <t>41229-25178</t>
+  </si>
+  <si>
+    <t>41229-25179</t>
+  </si>
+  <si>
+    <t>41229-25180</t>
+  </si>
+  <si>
+    <t>41229-25181</t>
+  </si>
+  <si>
+    <t>41229-25182</t>
+  </si>
+  <si>
+    <t>41229-25183</t>
+  </si>
+  <si>
+    <t>41229-25184</t>
+  </si>
+  <si>
+    <t>41229-25187</t>
+  </si>
+  <si>
+    <t>41229-25190</t>
+  </si>
+  <si>
+    <t>41229-25193</t>
+  </si>
+  <si>
+    <t>41229-25197</t>
+  </si>
+  <si>
+    <t>41229-25200</t>
+  </si>
+  <si>
+    <t>41229-25201</t>
+  </si>
+  <si>
+    <t>41229-25209</t>
+  </si>
+  <si>
+    <t>41229-25210</t>
+  </si>
+  <si>
+    <t>41229-25213</t>
+  </si>
+  <si>
+    <t>41229-25214</t>
+  </si>
+  <si>
+    <t>41229-25215</t>
+  </si>
+  <si>
+    <t>41229-25217</t>
+  </si>
+  <si>
+    <t>41229-25218</t>
+  </si>
+  <si>
+    <t>41229-25220</t>
+  </si>
+  <si>
+    <t>41229-25221</t>
+  </si>
+  <si>
+    <t>41229-25224</t>
+  </si>
+  <si>
+    <t>41229-25230</t>
+  </si>
+  <si>
+    <t>41229-25231</t>
+  </si>
+  <si>
+    <t>41229-25232</t>
+  </si>
+  <si>
+    <t>41229-25233</t>
+  </si>
+  <si>
+    <t>41229-25234</t>
+  </si>
+  <si>
+    <t>41229-25235</t>
+  </si>
+  <si>
+    <t>41229-25245</t>
+  </si>
+  <si>
+    <t>41229-25247</t>
+  </si>
+  <si>
+    <t>41229-25254</t>
+  </si>
+  <si>
+    <t>41229-25255</t>
+  </si>
+  <si>
+    <t>41229-25258</t>
+  </si>
+  <si>
+    <t>41229-25260</t>
+  </si>
+  <si>
+    <t>41229-25262</t>
+  </si>
+  <si>
+    <t>41229-25268</t>
+  </si>
+  <si>
+    <t>41229-25269</t>
+  </si>
+  <si>
+    <t>41229-25270</t>
+  </si>
+  <si>
+    <t>41229-25271</t>
+  </si>
+  <si>
+    <t>41229-25272</t>
+  </si>
+  <si>
+    <t>41229-25273</t>
+  </si>
+  <si>
+    <t>41229-25274</t>
+  </si>
+  <si>
+    <t>41229-25275</t>
+  </si>
+  <si>
+    <t>41229-25276</t>
+  </si>
+  <si>
+    <t>41229-25277</t>
+  </si>
+  <si>
+    <t>41229-25278</t>
+  </si>
+  <si>
+    <t>41229-25279</t>
+  </si>
+  <si>
+    <t>41229-25280</t>
+  </si>
+  <si>
+    <t>41229-25281</t>
+  </si>
+  <si>
+    <t>41229-25282</t>
+  </si>
+  <si>
+    <t>41229-25291</t>
+  </si>
+  <si>
+    <t>41229-25293</t>
+  </si>
+  <si>
+    <t>41229-25294</t>
+  </si>
+  <si>
+    <t>41229-25295</t>
+  </si>
+  <si>
+    <t>41229-25296</t>
+  </si>
+  <si>
+    <t>41229-25297</t>
+  </si>
+  <si>
+    <t>41229-25298</t>
+  </si>
+  <si>
+    <t>41229-25300</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +2081,10 @@
   <dimension ref="A1:BD247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M181" sqref="M181"/>
+      <selection pane="bottomRight" activeCell="BC132" sqref="BC132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13010,7 +13355,7 @@
         <v>4.5</v>
       </c>
       <c r="BC70" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BD70" t="s">
         <v>435</v>
@@ -13484,7 +13829,7 @@
         <v>133</v>
       </c>
       <c r="BC73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BD73" t="s">
         <v>435</v>
@@ -13645,7 +13990,7 @@
         <v>307</v>
       </c>
       <c r="BC74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BD74" t="s">
         <v>435</v>
@@ -13794,7 +14139,7 @@
         <v>212</v>
       </c>
       <c r="BC75" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BD75" t="s">
         <v>435</v>
@@ -13934,7 +14279,7 @@
         <v>210</v>
       </c>
       <c r="BC76" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BD76" t="s">
         <v>435</v>
@@ -14101,7 +14446,7 @@
         <v>305</v>
       </c>
       <c r="BC77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BD77" t="s">
         <v>435</v>
@@ -14268,7 +14613,7 @@
         <v>306</v>
       </c>
       <c r="BC78" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BD78" t="s">
         <v>435</v>
@@ -14414,7 +14759,7 @@
         <v>307</v>
       </c>
       <c r="BC79" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BD79" t="s">
         <v>435</v>
@@ -14569,7 +14914,7 @@
         <v>3.92</v>
       </c>
       <c r="BC80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BD80" t="s">
         <v>435</v>
@@ -14724,7 +15069,7 @@
         <v>4</v>
       </c>
       <c r="BC81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="BD81" t="s">
         <v>435</v>
@@ -14879,7 +15224,7 @@
         <v>3.97</v>
       </c>
       <c r="BC82" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BD82" t="s">
         <v>435</v>
@@ -22848,7 +23193,7 @@
         <v>4.54</v>
       </c>
       <c r="BD132" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:56" x14ac:dyDescent="0.2">
@@ -22889,7 +23234,7 @@
         <v>4.41</v>
       </c>
       <c r="BD133" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:56" x14ac:dyDescent="0.2">
@@ -22930,7 +23275,7 @@
         <v>4.08</v>
       </c>
       <c r="BD134" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:56" x14ac:dyDescent="0.2">
@@ -22971,7 +23316,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="BD135" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="136" spans="1:56" x14ac:dyDescent="0.2">
@@ -23009,7 +23354,7 @@
         <v>5.23</v>
       </c>
       <c r="BD136" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="137" spans="1:56" x14ac:dyDescent="0.2">
@@ -23032,7 +23377,7 @@
         <v>4.91</v>
       </c>
       <c r="BD137" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="138" spans="1:56" x14ac:dyDescent="0.2">
@@ -23052,7 +23397,7 @@
         <v>5.62</v>
       </c>
       <c r="BD138" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="1:56" x14ac:dyDescent="0.2">
@@ -23084,7 +23429,7 @@
         <v>1.85</v>
       </c>
       <c r="BD139" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:56" x14ac:dyDescent="0.2">
@@ -23113,7 +23458,7 @@
         <v>4.7</v>
       </c>
       <c r="BD140" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:56" x14ac:dyDescent="0.2">
@@ -23154,7 +23499,7 @@
         <v>5.13</v>
       </c>
       <c r="BD141" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
     </row>
     <row r="142" spans="1:56" x14ac:dyDescent="0.2">
@@ -23192,7 +23537,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="BD142" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:56" x14ac:dyDescent="0.2">
@@ -23230,7 +23575,7 @@
         <v>4.29</v>
       </c>
       <c r="BD143" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:56" x14ac:dyDescent="0.2">
@@ -23250,7 +23595,7 @@
         <v>5.08</v>
       </c>
       <c r="BD144" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:56" x14ac:dyDescent="0.2">
@@ -23291,7 +23636,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="BD145" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="1:56" x14ac:dyDescent="0.2">
@@ -23326,7 +23671,7 @@
         <v>3.57</v>
       </c>
       <c r="BD146" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:56" x14ac:dyDescent="0.2">
@@ -23349,7 +23694,7 @@
         <v>6.66</v>
       </c>
       <c r="BD147" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:56" x14ac:dyDescent="0.2">
@@ -23378,7 +23723,7 @@
         <v>4.17</v>
       </c>
       <c r="BD148" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
     </row>
     <row r="149" spans="1:56" x14ac:dyDescent="0.2">
@@ -23419,7 +23764,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="BD149" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
     </row>
     <row r="150" spans="1:56" x14ac:dyDescent="0.2">
@@ -23442,7 +23787,7 @@
         <v>6.14</v>
       </c>
       <c r="BD150" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:56" x14ac:dyDescent="0.2">
@@ -23483,7 +23828,7 @@
         <v>4.18</v>
       </c>
       <c r="BD151" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
     </row>
     <row r="152" spans="1:56" x14ac:dyDescent="0.2">
@@ -23503,7 +23848,7 @@
         <v>1.66</v>
       </c>
       <c r="BD152" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
     </row>
     <row r="153" spans="1:56" x14ac:dyDescent="0.2">
@@ -23523,7 +23868,7 @@
         <v>3.33</v>
       </c>
       <c r="BD153" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
     </row>
     <row r="154" spans="1:56" x14ac:dyDescent="0.2">
@@ -23552,7 +23897,7 @@
         <v>3.28</v>
       </c>
       <c r="BD154" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="155" spans="1:56" x14ac:dyDescent="0.2">
@@ -23581,7 +23926,7 @@
         <v>3.65</v>
       </c>
       <c r="BD155" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="156" spans="1:56" x14ac:dyDescent="0.2">
@@ -23595,7 +23940,7 @@
         <v>3.22</v>
       </c>
       <c r="BD156" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="1:56" x14ac:dyDescent="0.2">
@@ -23636,7 +23981,7 @@
         <v>3.78</v>
       </c>
       <c r="BD157" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
     </row>
     <row r="158" spans="1:56" x14ac:dyDescent="0.2">
@@ -23677,7 +24022,7 @@
         <v>4.83</v>
       </c>
       <c r="BD158" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="159" spans="1:56" x14ac:dyDescent="0.2">
@@ -23706,7 +24051,7 @@
         <v>3.15</v>
       </c>
       <c r="BD159" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
     </row>
     <row r="160" spans="1:56" x14ac:dyDescent="0.2">
@@ -23747,7 +24092,7 @@
         <v>4.37</v>
       </c>
       <c r="BD160" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="1:56" x14ac:dyDescent="0.2">
@@ -23788,7 +24133,7 @@
         <v>4.41</v>
       </c>
       <c r="BD161" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:56" x14ac:dyDescent="0.2">
@@ -23814,7 +24159,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="BD162" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
     </row>
     <row r="163" spans="1:56" x14ac:dyDescent="0.2">
@@ -23855,7 +24200,7 @@
         <v>4.32</v>
       </c>
       <c r="BD163" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="1:56" x14ac:dyDescent="0.2">
@@ -23872,7 +24217,7 @@
         <v>5.36</v>
       </c>
       <c r="BD164" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
     </row>
     <row r="165" spans="1:56" x14ac:dyDescent="0.2">
@@ -23898,7 +24243,7 @@
         <v>5.52</v>
       </c>
       <c r="BD165" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
     </row>
     <row r="166" spans="1:56" x14ac:dyDescent="0.2">
@@ -23927,7 +24272,7 @@
         <v>3.57</v>
       </c>
       <c r="BD166" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
     </row>
     <row r="167" spans="1:56" x14ac:dyDescent="0.2">
@@ -23956,7 +24301,7 @@
         <v>3.46</v>
       </c>
       <c r="BD167" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="1:56" x14ac:dyDescent="0.2">
@@ -23997,7 +24342,7 @@
         <v>4.58</v>
       </c>
       <c r="BD168" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:56" x14ac:dyDescent="0.2">
@@ -24038,7 +24383,7 @@
         <v>4.12</v>
       </c>
       <c r="BD169" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
     </row>
     <row r="170" spans="1:56" x14ac:dyDescent="0.2">
@@ -24079,7 +24424,7 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="BD170" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
     </row>
     <row r="171" spans="1:56" x14ac:dyDescent="0.2">
@@ -24105,7 +24450,7 @@
         <v>4.42</v>
       </c>
       <c r="BD171" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:56" x14ac:dyDescent="0.2">
@@ -24146,7 +24491,7 @@
         <v>4.78</v>
       </c>
       <c r="BD172" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="173" spans="1:56" x14ac:dyDescent="0.2">
@@ -24175,7 +24520,7 @@
         <v>3.62</v>
       </c>
       <c r="BD173" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:56" x14ac:dyDescent="0.2">
@@ -24216,7 +24561,7 @@
         <v>4.7</v>
       </c>
       <c r="BD174" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
     </row>
     <row r="175" spans="1:56" x14ac:dyDescent="0.2">
@@ -24257,7 +24602,7 @@
         <v>4.8</v>
       </c>
       <c r="BD175" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
     </row>
     <row r="176" spans="1:56" x14ac:dyDescent="0.2">
@@ -24283,7 +24628,7 @@
         <v>5.77</v>
       </c>
       <c r="BD176" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:56" x14ac:dyDescent="0.2">
@@ -24324,7 +24669,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="BD177" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
     </row>
     <row r="178" spans="1:56" x14ac:dyDescent="0.2">
@@ -24365,7 +24710,7 @@
         <v>4.29</v>
       </c>
       <c r="BD178" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
     </row>
     <row r="179" spans="1:56" x14ac:dyDescent="0.2">
@@ -24403,7 +24748,7 @@
         <v>4.78</v>
       </c>
       <c r="BD179" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
     </row>
     <row r="180" spans="1:56" x14ac:dyDescent="0.2">
@@ -24444,7 +24789,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="BD180" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
     </row>
     <row r="181" spans="1:56" x14ac:dyDescent="0.2">
@@ -24473,7 +24818,7 @@
         <v>3.69</v>
       </c>
       <c r="BD181" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:56" x14ac:dyDescent="0.2">
@@ -24502,7 +24847,7 @@
         <v>3.88</v>
       </c>
       <c r="BD182" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
     </row>
     <row r="183" spans="1:56" x14ac:dyDescent="0.2">
@@ -24543,7 +24888,7 @@
         <v>3.44</v>
       </c>
       <c r="BD183" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:56" x14ac:dyDescent="0.2">
@@ -24569,7 +24914,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="BD184" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185" spans="1:56" x14ac:dyDescent="0.2">
@@ -24589,7 +24934,7 @@
         <v>5.41</v>
       </c>
       <c r="BD185" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
     </row>
     <row r="186" spans="1:56" x14ac:dyDescent="0.2">
@@ -24630,7 +24975,7 @@
         <v>4.24</v>
       </c>
       <c r="BD186" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
     </row>
     <row r="187" spans="1:56" x14ac:dyDescent="0.2">
@@ -24671,7 +25016,7 @@
         <v>5.16</v>
       </c>
       <c r="BD187" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
     </row>
     <row r="188" spans="1:56" x14ac:dyDescent="0.2">
@@ -24712,7 +25057,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="BD188" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
     </row>
     <row r="189" spans="1:56" x14ac:dyDescent="0.2">
@@ -24753,7 +25098,7 @@
         <v>4.54</v>
       </c>
       <c r="BD189" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
     </row>
     <row r="190" spans="1:56" x14ac:dyDescent="0.2">
@@ -24794,7 +25139,7 @@
         <v>4.71</v>
       </c>
       <c r="BD190" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
     </row>
     <row r="191" spans="1:56" x14ac:dyDescent="0.2">
@@ -24835,7 +25180,7 @@
         <v>4.82</v>
       </c>
       <c r="BD191" t="s">
-        <v>442</v>
+        <v>512</v>
       </c>
     </row>
     <row r="192" spans="1:56" x14ac:dyDescent="0.2">
@@ -24864,7 +25209,7 @@
         <v>3.58</v>
       </c>
       <c r="BD192" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
     </row>
     <row r="193" spans="1:56" x14ac:dyDescent="0.2">
@@ -24905,7 +25250,7 @@
         <v>4.03</v>
       </c>
       <c r="BD193" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
     </row>
     <row r="194" spans="1:56" x14ac:dyDescent="0.2">
@@ -24946,7 +25291,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="BD194" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
     </row>
     <row r="195" spans="1:56" x14ac:dyDescent="0.2">
@@ -24972,7 +25317,7 @@
         <v>4.57</v>
       </c>
       <c r="BD195" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
     </row>
     <row r="196" spans="1:56" x14ac:dyDescent="0.2">
@@ -25013,7 +25358,7 @@
         <v>4.38</v>
       </c>
       <c r="BD196" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
     </row>
     <row r="197" spans="1:56" x14ac:dyDescent="0.2">
@@ -25033,7 +25378,7 @@
         <v>4.5</v>
       </c>
       <c r="BD197" t="s">
-        <v>442</v>
+        <v>518</v>
       </c>
     </row>
     <row r="198" spans="1:56" x14ac:dyDescent="0.2">
@@ -25074,7 +25419,7 @@
         <v>3.86</v>
       </c>
       <c r="BD198" t="s">
-        <v>442</v>
+        <v>519</v>
       </c>
     </row>
     <row r="199" spans="1:56" x14ac:dyDescent="0.2">
@@ -25103,7 +25448,7 @@
         <v>1.73</v>
       </c>
       <c r="BD199" t="s">
-        <v>442</v>
+        <v>520</v>
       </c>
     </row>
     <row r="200" spans="1:56" x14ac:dyDescent="0.2">
@@ -25129,7 +25474,7 @@
         <v>5.12</v>
       </c>
       <c r="BD200" t="s">
-        <v>442</v>
+        <v>521</v>
       </c>
     </row>
     <row r="201" spans="1:56" x14ac:dyDescent="0.2">
@@ -25170,7 +25515,7 @@
         <v>4.12</v>
       </c>
       <c r="BD201" t="s">
-        <v>442</v>
+        <v>522</v>
       </c>
     </row>
     <row r="202" spans="1:56" x14ac:dyDescent="0.2">
@@ -25193,7 +25538,7 @@
         <v>5.17</v>
       </c>
       <c r="BD202" t="s">
-        <v>442</v>
+        <v>523</v>
       </c>
     </row>
     <row r="203" spans="1:56" x14ac:dyDescent="0.2">
@@ -25213,7 +25558,7 @@
         <v>4.26</v>
       </c>
       <c r="BD203" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
     </row>
     <row r="204" spans="1:56" x14ac:dyDescent="0.2">
@@ -25254,7 +25599,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="BD204" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
     </row>
     <row r="205" spans="1:56" x14ac:dyDescent="0.2">
@@ -25292,7 +25637,7 @@
         <v>5.27</v>
       </c>
       <c r="BD205" t="s">
-        <v>442</v>
+        <v>526</v>
       </c>
     </row>
     <row r="206" spans="1:56" x14ac:dyDescent="0.2">
@@ -25333,7 +25678,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="BD206" t="s">
-        <v>442</v>
+        <v>527</v>
       </c>
     </row>
     <row r="207" spans="1:56" x14ac:dyDescent="0.2">
@@ -25350,7 +25695,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="BD207" t="s">
-        <v>442</v>
+        <v>528</v>
       </c>
     </row>
     <row r="208" spans="1:56" x14ac:dyDescent="0.2">
@@ -25379,7 +25724,7 @@
         <v>3.76</v>
       </c>
       <c r="BD208" t="s">
-        <v>442</v>
+        <v>529</v>
       </c>
     </row>
     <row r="209" spans="1:56" x14ac:dyDescent="0.2">
@@ -25402,7 +25747,7 @@
         <v>3.63</v>
       </c>
       <c r="BD209" t="s">
-        <v>442</v>
+        <v>530</v>
       </c>
     </row>
     <row r="210" spans="1:56" x14ac:dyDescent="0.2">
@@ -25443,7 +25788,7 @@
         <v>4.49</v>
       </c>
       <c r="BD210" t="s">
-        <v>442</v>
+        <v>531</v>
       </c>
     </row>
     <row r="211" spans="1:56" x14ac:dyDescent="0.2">
@@ -25460,7 +25805,7 @@
         <v>5.13</v>
       </c>
       <c r="BD211" t="s">
-        <v>442</v>
+        <v>532</v>
       </c>
     </row>
     <row r="212" spans="1:56" x14ac:dyDescent="0.2">
@@ -25501,7 +25846,7 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="BD212" t="s">
-        <v>442</v>
+        <v>533</v>
       </c>
     </row>
     <row r="213" spans="1:56" x14ac:dyDescent="0.2">
@@ -25518,7 +25863,7 @@
         <v>1.85</v>
       </c>
       <c r="BD213" t="s">
-        <v>442</v>
+        <v>534</v>
       </c>
     </row>
     <row r="214" spans="1:56" x14ac:dyDescent="0.2">
@@ -25553,7 +25898,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="BD214" t="s">
-        <v>442</v>
+        <v>535</v>
       </c>
     </row>
     <row r="215" spans="1:56" x14ac:dyDescent="0.2">
@@ -25573,7 +25918,7 @@
         <v>2.96</v>
       </c>
       <c r="BD215" t="s">
-        <v>442</v>
+        <v>536</v>
       </c>
     </row>
     <row r="216" spans="1:56" x14ac:dyDescent="0.2">
@@ -25599,7 +25944,7 @@
         <v>3.9</v>
       </c>
       <c r="BD216" t="s">
-        <v>442</v>
+        <v>537</v>
       </c>
     </row>
     <row r="217" spans="1:56" x14ac:dyDescent="0.2">
@@ -25628,7 +25973,7 @@
         <v>5.08</v>
       </c>
       <c r="BD217" t="s">
-        <v>442</v>
+        <v>538</v>
       </c>
     </row>
     <row r="218" spans="1:56" x14ac:dyDescent="0.2">
@@ -25669,7 +26014,7 @@
         <v>4.54</v>
       </c>
       <c r="BD218" t="s">
-        <v>442</v>
+        <v>539</v>
       </c>
     </row>
     <row r="219" spans="1:56" x14ac:dyDescent="0.2">
@@ -25710,7 +26055,7 @@
         <v>4.28</v>
       </c>
       <c r="BD219" t="s">
-        <v>442</v>
+        <v>540</v>
       </c>
     </row>
     <row r="220" spans="1:56" x14ac:dyDescent="0.2">
@@ -25751,7 +26096,7 @@
         <v>4.29</v>
       </c>
       <c r="BD220" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
     </row>
     <row r="221" spans="1:56" x14ac:dyDescent="0.2">
@@ -25771,7 +26116,7 @@
         <v>5.36</v>
       </c>
       <c r="BD221" t="s">
-        <v>442</v>
+        <v>542</v>
       </c>
     </row>
     <row r="222" spans="1:56" x14ac:dyDescent="0.2">
@@ -25797,7 +26142,7 @@
         <v>1.43</v>
       </c>
       <c r="BD222" t="s">
-        <v>442</v>
+        <v>543</v>
       </c>
     </row>
     <row r="223" spans="1:56" x14ac:dyDescent="0.2">
@@ -25820,7 +26165,7 @@
         <v>3.14</v>
       </c>
       <c r="BD223" t="s">
-        <v>442</v>
+        <v>544</v>
       </c>
     </row>
     <row r="224" spans="1:56" x14ac:dyDescent="0.2">
@@ -25861,7 +26206,7 @@
         <v>4.22</v>
       </c>
       <c r="BD224" t="s">
-        <v>442</v>
+        <v>545</v>
       </c>
     </row>
     <row r="225" spans="1:56" x14ac:dyDescent="0.2">
@@ -25890,7 +26235,7 @@
         <v>3.57</v>
       </c>
       <c r="BD225" t="s">
-        <v>442</v>
+        <v>546</v>
       </c>
     </row>
     <row r="226" spans="1:56" x14ac:dyDescent="0.2">
@@ -25928,7 +26273,7 @@
         <v>5.09</v>
       </c>
       <c r="BD226" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
     </row>
     <row r="227" spans="1:56" x14ac:dyDescent="0.2">
@@ -25948,7 +26293,7 @@
         <v>4.62</v>
       </c>
       <c r="BD227" t="s">
-        <v>442</v>
+        <v>548</v>
       </c>
     </row>
     <row r="228" spans="1:56" x14ac:dyDescent="0.2">
@@ -25989,7 +26334,7 @@
         <v>3.84</v>
       </c>
       <c r="BD228" t="s">
-        <v>442</v>
+        <v>549</v>
       </c>
     </row>
     <row r="229" spans="1:56" x14ac:dyDescent="0.2">
@@ -26012,7 +26357,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="BD229" t="s">
-        <v>442</v>
+        <v>550</v>
       </c>
     </row>
     <row r="230" spans="1:56" x14ac:dyDescent="0.2">
@@ -26050,7 +26395,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="BD230" t="s">
-        <v>442</v>
+        <v>551</v>
       </c>
     </row>
     <row r="231" spans="1:56" x14ac:dyDescent="0.2">
@@ -26091,7 +26436,7 @@
         <v>3.87</v>
       </c>
       <c r="BD231" t="s">
-        <v>442</v>
+        <v>552</v>
       </c>
     </row>
     <row r="232" spans="1:56" x14ac:dyDescent="0.2">
@@ -26111,7 +26456,7 @@
         <v>3.66</v>
       </c>
       <c r="BD232" t="s">
-        <v>442</v>
+        <v>553</v>
       </c>
     </row>
     <row r="233" spans="1:56" x14ac:dyDescent="0.2">
@@ -26143,7 +26488,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="BD233" t="s">
-        <v>442</v>
+        <v>554</v>
       </c>
     </row>
     <row r="234" spans="1:56" x14ac:dyDescent="0.2">
@@ -26163,7 +26508,7 @@
         <v>3.63</v>
       </c>
       <c r="BD234" t="s">
-        <v>442</v>
+        <v>555</v>
       </c>
     </row>
     <row r="235" spans="1:56" x14ac:dyDescent="0.2">
@@ -26192,7 +26537,7 @@
         <v>5.18</v>
       </c>
       <c r="BD235" t="s">
-        <v>442</v>
+        <v>556</v>
       </c>
     </row>
     <row r="236" spans="1:56" x14ac:dyDescent="0.2">
@@ -26230,7 +26575,7 @@
         <v>4.46</v>
       </c>
       <c r="BD236" t="s">
-        <v>442</v>
+        <v>557</v>
       </c>
     </row>
     <row r="237" spans="1:56" x14ac:dyDescent="0.2">
@@ -26271,7 +26616,7 @@
         <v>4.92</v>
       </c>
       <c r="BD237" t="s">
-        <v>442</v>
+        <v>558</v>
       </c>
     </row>
     <row r="238" spans="1:56" x14ac:dyDescent="0.2">
@@ -26312,7 +26657,7 @@
         <v>3.5</v>
       </c>
       <c r="BD238" t="s">
-        <v>442</v>
+        <v>559</v>
       </c>
     </row>
     <row r="239" spans="1:56" x14ac:dyDescent="0.2">
@@ -26353,7 +26698,7 @@
         <v>4.05</v>
       </c>
       <c r="BD239" t="s">
-        <v>442</v>
+        <v>560</v>
       </c>
     </row>
     <row r="240" spans="1:56" x14ac:dyDescent="0.2">
@@ -26394,7 +26739,7 @@
         <v>4.08</v>
       </c>
       <c r="BD240" t="s">
-        <v>442</v>
+        <v>561</v>
       </c>
     </row>
     <row r="241" spans="1:56" x14ac:dyDescent="0.2">
@@ -26435,7 +26780,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="BD241" t="s">
-        <v>442</v>
+        <v>562</v>
       </c>
     </row>
     <row r="242" spans="1:56" x14ac:dyDescent="0.2">
@@ -26476,7 +26821,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="BD242" t="s">
-        <v>442</v>
+        <v>563</v>
       </c>
     </row>
     <row r="243" spans="1:56" x14ac:dyDescent="0.2">
@@ -26517,7 +26862,7 @@
         <v>3.58</v>
       </c>
       <c r="BD243" t="s">
-        <v>442</v>
+        <v>564</v>
       </c>
     </row>
     <row r="244" spans="1:56" x14ac:dyDescent="0.2">
@@ -26558,7 +26903,7 @@
         <v>4.34</v>
       </c>
       <c r="BD244" t="s">
-        <v>442</v>
+        <v>565</v>
       </c>
     </row>
     <row r="245" spans="1:56" x14ac:dyDescent="0.2">
@@ -26587,7 +26932,7 @@
         <v>5.43</v>
       </c>
       <c r="BD245" t="s">
-        <v>442</v>
+        <v>566</v>
       </c>
     </row>
     <row r="246" spans="1:56" x14ac:dyDescent="0.2">
@@ -26628,7 +26973,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="BD246" t="s">
-        <v>442</v>
+        <v>567</v>
       </c>
     </row>
     <row r="247" spans="1:56" x14ac:dyDescent="0.2">
@@ -26660,7 +27005,7 @@
         <v>1.92</v>
       </c>
       <c r="BD247" t="s">
-        <v>442</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/Linear_data/Data/Amb_linear_data.xlsx
+++ b/Linear_data/Data/Amb_linear_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/dtl474_austin_eid_utexas_edu/Documents/Ambystoma/Analysis/Ambystoma/Linear_data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="11_6FB036433116CDFCDA5B7D3A98BD90200F9A6635" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{626EEF39-93C9-3B4A-96F2-684A320B8D63}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="11_6FB036433116CDFCDA5B7D3A98BD90200F9A6635" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A268838E-D977-FF45-86C0-354DBB388A0F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27320" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2081,10 +2081,10 @@
   <dimension ref="A1:BD247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BC132" sqref="BC132"/>
+      <selection pane="bottomRight" activeCell="V205" sqref="V205:AB205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23253,25 +23253,25 @@
       <c r="H134">
         <v>0.98499999999999999</v>
       </c>
-      <c r="O134">
+      <c r="V134">
         <v>3.52</v>
       </c>
-      <c r="P134">
+      <c r="W134">
         <v>1.83</v>
       </c>
-      <c r="Q134">
+      <c r="X134">
         <v>1.79</v>
       </c>
-      <c r="R134">
+      <c r="Y134">
         <v>4.08</v>
       </c>
-      <c r="S134">
+      <c r="Z134">
         <v>3.86</v>
       </c>
-      <c r="T134">
+      <c r="AA134">
         <v>5.05</v>
       </c>
-      <c r="U134">
+      <c r="AB134">
         <v>4.08</v>
       </c>
       <c r="BD134" t="s">
@@ -24000,25 +24000,25 @@
       <c r="H158">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AC158">
+      <c r="V158">
         <v>3.9</v>
       </c>
-      <c r="AD158">
+      <c r="W158">
         <v>1.95</v>
       </c>
-      <c r="AE158">
+      <c r="X158">
         <v>1.94</v>
       </c>
-      <c r="AF158">
+      <c r="Y158">
         <v>4.16</v>
       </c>
-      <c r="AG158">
+      <c r="Z158">
         <v>4.29</v>
       </c>
-      <c r="AH158">
+      <c r="AA158">
         <v>5.72</v>
       </c>
-      <c r="AI158">
+      <c r="AB158">
         <v>4.83</v>
       </c>
       <c r="BD158" t="s">
@@ -24140,22 +24140,22 @@
       <c r="A162" t="s">
         <v>216</v>
       </c>
-      <c r="AC162">
+      <c r="V162">
         <v>3.38</v>
       </c>
-      <c r="AD162">
+      <c r="W162">
         <v>1.66</v>
       </c>
-      <c r="AE162">
+      <c r="X162">
         <v>1.72</v>
       </c>
-      <c r="AG162">
+      <c r="Z162">
         <v>3.51</v>
       </c>
-      <c r="AH162">
+      <c r="AA162">
         <v>5.13</v>
       </c>
-      <c r="AI162">
+      <c r="AB162">
         <v>4.3499999999999996</v>
       </c>
       <c r="BD162" t="s">
@@ -24767,25 +24767,25 @@
       <c r="H180">
         <v>1.159</v>
       </c>
-      <c r="AC180">
+      <c r="V180">
         <v>3.83</v>
       </c>
-      <c r="AD180">
+      <c r="W180">
         <v>1.85</v>
       </c>
-      <c r="AE180">
+      <c r="X180">
         <v>1.86</v>
       </c>
-      <c r="AF180">
+      <c r="Y180">
         <v>3.85</v>
       </c>
-      <c r="AG180">
+      <c r="Z180">
         <v>3.95</v>
       </c>
-      <c r="AH180">
+      <c r="AA180">
         <v>5.48</v>
       </c>
-      <c r="AI180">
+      <c r="AB180">
         <v>4.3600000000000003</v>
       </c>
       <c r="BD180" t="s">
@@ -25455,22 +25455,22 @@
       <c r="A200" t="s">
         <v>254</v>
       </c>
-      <c r="AC200">
+      <c r="V200">
         <v>3.68</v>
       </c>
-      <c r="AD200">
+      <c r="W200">
         <v>1.64</v>
       </c>
-      <c r="AE200">
+      <c r="X200">
         <v>1.61</v>
       </c>
-      <c r="AF200">
+      <c r="Y200">
         <v>3.59</v>
       </c>
-      <c r="AG200">
+      <c r="Z200">
         <v>3.66</v>
       </c>
-      <c r="AH200">
+      <c r="AA200">
         <v>5.12</v>
       </c>
       <c r="BD200" t="s">
@@ -25618,22 +25618,22 @@
       <c r="H205">
         <v>0.96099999999999997</v>
       </c>
-      <c r="AC205">
+      <c r="V205">
         <v>3.83</v>
       </c>
-      <c r="AD205">
+      <c r="W205">
         <v>2</v>
       </c>
-      <c r="AE205">
+      <c r="X205">
         <v>1.82</v>
       </c>
-      <c r="AF205">
+      <c r="Y205">
         <v>3.89</v>
       </c>
-      <c r="AG205">
+      <c r="Z205">
         <v>3.84</v>
       </c>
-      <c r="AH205">
+      <c r="AA205">
         <v>5.27</v>
       </c>
       <c r="BD205" t="s">

--- a/Linear_data/Data/Amb_linear_data.xlsx
+++ b/Linear_data/Data/Amb_linear_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/dtl474_austin_eid_utexas_edu/Documents/Ambystoma/Analysis/Ambystoma/Linear_data/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidledesma/OneDrive - The University of Texas at Austin/Ambystoma/Analysis/Ambystoma/Linear_data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3198" documentId="11_6FB036433116CDFCDA5B7D3A98BD90200F9A6635" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{69193631-FE19-F243-8B48-7C5B8CA39AEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DC703D-3FAD-9444-B6D7-183ED86BEC21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60207,8 +60207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8797C-CF76-3C4E-BD49-E486D7404931}">
   <dimension ref="A1:BD303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -69457,9 +69457,6 @@
       <c r="M58">
         <v>3.71</v>
       </c>
-      <c r="N58">
-        <v>3.29</v>
-      </c>
       <c r="O58">
         <v>3.26</v>
       </c>
@@ -71388,9 +71385,6 @@
       </c>
       <c r="M70">
         <v>5.32</v>
-      </c>
-      <c r="N70">
-        <v>3.65</v>
       </c>
       <c r="O70">
         <v>3.66</v>

--- a/Linear_data/Data/Amb_linear_data.xlsx
+++ b/Linear_data/Data/Amb_linear_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidledesma/OneDrive - The University of Texas at Austin/Ambystoma/Analysis/Ambystoma/Linear_data/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/dtl474_austin_eid_utexas_edu/Documents/Ambystoma/Analysis/Ambystoma/Linear_data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DC703D-3FAD-9444-B6D7-183ED86BEC21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C3DC703D-3FAD-9444-B6D7-183ED86BEC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A33D51C4-9E76-BE4B-9A5B-EE35F0CD729C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="802">
   <si>
     <t>Specimen</t>
   </si>
@@ -2092,6 +2092,354 @@
   <si>
     <t>A.macrodactylum_UTEP_1386</t>
   </si>
+  <si>
+    <t>TMM_41229-10074</t>
+  </si>
+  <si>
+    <t>TMM_41229-10854</t>
+  </si>
+  <si>
+    <t>TMM_41229-10899</t>
+  </si>
+  <si>
+    <t>TMM_41229-10996</t>
+  </si>
+  <si>
+    <t>TMM_41229-11011</t>
+  </si>
+  <si>
+    <t>TMM_41229-11012</t>
+  </si>
+  <si>
+    <t>TMM_41229-11249</t>
+  </si>
+  <si>
+    <t>TMM_41229-25000</t>
+  </si>
+  <si>
+    <t>TMM_41229-25015</t>
+  </si>
+  <si>
+    <t>TMM_41229-25017</t>
+  </si>
+  <si>
+    <t>TMM_41229-25018</t>
+  </si>
+  <si>
+    <t>TMM_41229-25019</t>
+  </si>
+  <si>
+    <t>TMM_41229-25023</t>
+  </si>
+  <si>
+    <t>TMM_41229-25024</t>
+  </si>
+  <si>
+    <t>TMM_41229-25025</t>
+  </si>
+  <si>
+    <t>TMM_41229-25031</t>
+  </si>
+  <si>
+    <t>TMM_41229-25033</t>
+  </si>
+  <si>
+    <t>TMM_41229-25034</t>
+  </si>
+  <si>
+    <t>TMM_41229-25042</t>
+  </si>
+  <si>
+    <t>TMM_41229-25096</t>
+  </si>
+  <si>
+    <t>TMM_41229-25101</t>
+  </si>
+  <si>
+    <t>TMM_41229-25106</t>
+  </si>
+  <si>
+    <t>TMM_41229-25107</t>
+  </si>
+  <si>
+    <t>TMM_41229-25108</t>
+  </si>
+  <si>
+    <t>TMM_41229-25109</t>
+  </si>
+  <si>
+    <t>TMM_41229-25110</t>
+  </si>
+  <si>
+    <t>TMM_41229-25111</t>
+  </si>
+  <si>
+    <t>TMM_41229-25112</t>
+  </si>
+  <si>
+    <t>TMM_41229-25113</t>
+  </si>
+  <si>
+    <t>TMM_41229-25114</t>
+  </si>
+  <si>
+    <t>TMM_41229-25115</t>
+  </si>
+  <si>
+    <t>TMM_41229-25116</t>
+  </si>
+  <si>
+    <t>TMM_41229-25125</t>
+  </si>
+  <si>
+    <t>TMM_41229-25126</t>
+  </si>
+  <si>
+    <t>TMM_41229-25128</t>
+  </si>
+  <si>
+    <t>TMM_41229-25129</t>
+  </si>
+  <si>
+    <t>TMM_41229-25133</t>
+  </si>
+  <si>
+    <t>TMM_41229-25134</t>
+  </si>
+  <si>
+    <t>TMM_41229-25135</t>
+  </si>
+  <si>
+    <t>TMM_41229-25137</t>
+  </si>
+  <si>
+    <t>TMM_41229-25141</t>
+  </si>
+  <si>
+    <t>TMM_41229-25142</t>
+  </si>
+  <si>
+    <t>TMM_41229-25143</t>
+  </si>
+  <si>
+    <t>TMM_41229-25144</t>
+  </si>
+  <si>
+    <t>TMM_41229-25145</t>
+  </si>
+  <si>
+    <t>TMM_41229-25146</t>
+  </si>
+  <si>
+    <t>TMM_41229-25151</t>
+  </si>
+  <si>
+    <t>TMM_41229-25161</t>
+  </si>
+  <si>
+    <t>TMM_41229-25163</t>
+  </si>
+  <si>
+    <t>TMM_41229-25164</t>
+  </si>
+  <si>
+    <t>TMM_41229-25165</t>
+  </si>
+  <si>
+    <t>TMM_41229-25167</t>
+  </si>
+  <si>
+    <t>TMM_41229-25172</t>
+  </si>
+  <si>
+    <t>TMM_41229-25173</t>
+  </si>
+  <si>
+    <t>TMM_41229-25174</t>
+  </si>
+  <si>
+    <t>TMM_41229-25176</t>
+  </si>
+  <si>
+    <t>TMM_41229-25177</t>
+  </si>
+  <si>
+    <t>TMM_41229-25178</t>
+  </si>
+  <si>
+    <t>TMM_41229-25179</t>
+  </si>
+  <si>
+    <t>TMM_41229-25180</t>
+  </si>
+  <si>
+    <t>TMM_41229-25181</t>
+  </si>
+  <si>
+    <t>TMM_41229-25182</t>
+  </si>
+  <si>
+    <t>TMM_41229-25183</t>
+  </si>
+  <si>
+    <t>TMM_41229-25184</t>
+  </si>
+  <si>
+    <t>TMM_41229-25187</t>
+  </si>
+  <si>
+    <t>TMM_41229-25190</t>
+  </si>
+  <si>
+    <t>TMM_41229-25193</t>
+  </si>
+  <si>
+    <t>TMM_41229-25197</t>
+  </si>
+  <si>
+    <t>TMM_41229-25200</t>
+  </si>
+  <si>
+    <t>TMM_41229-25201</t>
+  </si>
+  <si>
+    <t>TMM_41229-25209</t>
+  </si>
+  <si>
+    <t>TMM_41229-25210</t>
+  </si>
+  <si>
+    <t>TMM_41229-25213</t>
+  </si>
+  <si>
+    <t>TMM_41229-25214</t>
+  </si>
+  <si>
+    <t>TMM_41229-25215</t>
+  </si>
+  <si>
+    <t>TMM_41229-25217</t>
+  </si>
+  <si>
+    <t>TMM_41229-25218</t>
+  </si>
+  <si>
+    <t>TMM_41229-25220</t>
+  </si>
+  <si>
+    <t>TMM_41229-25221</t>
+  </si>
+  <si>
+    <t>TMM_41229-25224</t>
+  </si>
+  <si>
+    <t>TMM_41229-25230</t>
+  </si>
+  <si>
+    <t>TMM_41229-25231</t>
+  </si>
+  <si>
+    <t>TMM_41229-25232</t>
+  </si>
+  <si>
+    <t>TMM_41229-25233</t>
+  </si>
+  <si>
+    <t>TMM_41229-25234</t>
+  </si>
+  <si>
+    <t>TMM_41229-25235</t>
+  </si>
+  <si>
+    <t>TMM_41229-25245</t>
+  </si>
+  <si>
+    <t>TMM_41229-25247</t>
+  </si>
+  <si>
+    <t>TMM_41229-25254</t>
+  </si>
+  <si>
+    <t>TMM_41229-25255</t>
+  </si>
+  <si>
+    <t>TMM_41229-25258</t>
+  </si>
+  <si>
+    <t>TMM_41229-25260</t>
+  </si>
+  <si>
+    <t>TMM_41229-25262</t>
+  </si>
+  <si>
+    <t>TMM_41229-25268</t>
+  </si>
+  <si>
+    <t>TMM_41229-25269</t>
+  </si>
+  <si>
+    <t>TMM_41229-25270</t>
+  </si>
+  <si>
+    <t>TMM_41229-25271</t>
+  </si>
+  <si>
+    <t>TMM_41229-25272</t>
+  </si>
+  <si>
+    <t>TMM_41229-25273</t>
+  </si>
+  <si>
+    <t>TMM_41229-25274</t>
+  </si>
+  <si>
+    <t>TMM_41229-25275</t>
+  </si>
+  <si>
+    <t>TMM_41229-25276</t>
+  </si>
+  <si>
+    <t>TMM_41229-25277</t>
+  </si>
+  <si>
+    <t>TMM_41229-25278</t>
+  </si>
+  <si>
+    <t>TMM_41229-25279</t>
+  </si>
+  <si>
+    <t>TMM_41229-25280</t>
+  </si>
+  <si>
+    <t>TMM_41229-25281</t>
+  </si>
+  <si>
+    <t>TMM_41229-25282</t>
+  </si>
+  <si>
+    <t>TMM_41229-25291</t>
+  </si>
+  <si>
+    <t>TMM_41229-25293</t>
+  </si>
+  <si>
+    <t>TMM_41229-25294</t>
+  </si>
+  <si>
+    <t>TMM_41229-25295</t>
+  </si>
+  <si>
+    <t>TMM_41229-25296</t>
+  </si>
+  <si>
+    <t>TMM_41229-25297</t>
+  </si>
+  <si>
+    <t>TMM_41229-25298</t>
+  </si>
+  <si>
+    <t>TMM_41229-25300</t>
+  </si>
 </sst>
 </file>
 
@@ -60207,8 +60555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8797C-CF76-3C4E-BD49-E486D7404931}">
   <dimension ref="A1:BD303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -89989,7 +90337,7 @@
     </row>
     <row r="188" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>686</v>
       </c>
       <c r="V188">
         <v>4.28</v>
@@ -90012,7 +90360,7 @@
     </row>
     <row r="189" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>687</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -90053,7 +90401,7 @@
     </row>
     <row r="190" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>688</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -90094,7 +90442,7 @@
     </row>
     <row r="191" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>689</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -90135,7 +90483,7 @@
     </row>
     <row r="192" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>690</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -90173,7 +90521,7 @@
     </row>
     <row r="193" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>691</v>
       </c>
       <c r="AC193">
         <v>3.71</v>
@@ -90196,7 +90544,7 @@
     </row>
     <row r="194" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>692</v>
       </c>
       <c r="AQ194">
         <v>4.1100000000000003</v>
@@ -90216,7 +90564,7 @@
     </row>
     <row r="195" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>693</v>
       </c>
       <c r="B195">
         <v>1.99</v>
@@ -90248,7 +90596,7 @@
     </row>
     <row r="196" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>694</v>
       </c>
       <c r="AC196">
         <v>4.37</v>
@@ -90277,7 +90625,7 @@
     </row>
     <row r="197" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>695</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -90318,7 +90666,7 @@
     </row>
     <row r="198" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>696</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -90356,7 +90704,7 @@
     </row>
     <row r="199" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>697</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -90394,7 +90742,7 @@
     </row>
     <row r="200" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>698</v>
       </c>
       <c r="AD200">
         <v>2.16</v>
@@ -90414,7 +90762,7 @@
     </row>
     <row r="201" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>699</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -90455,7 +90803,7 @@
     </row>
     <row r="202" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -90490,7 +90838,7 @@
     </row>
     <row r="203" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>701</v>
       </c>
       <c r="AC203">
         <v>5.0199999999999996</v>
@@ -90513,7 +90861,7 @@
     </row>
     <row r="204" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>702</v>
       </c>
       <c r="AC204">
         <v>4.08</v>
@@ -90542,7 +90890,7 @@
     </row>
     <row r="205" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>703</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -90583,7 +90931,7 @@
     </row>
     <row r="206" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>704</v>
       </c>
       <c r="AC206">
         <v>4.79</v>
@@ -90606,7 +90954,7 @@
     </row>
     <row r="207" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>705</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -90647,7 +90995,7 @@
     </row>
     <row r="208" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>706</v>
       </c>
       <c r="B208">
         <v>1.665</v>
@@ -90667,7 +91015,7 @@
     </row>
     <row r="209" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>707</v>
       </c>
       <c r="O209">
         <v>3.13</v>
@@ -90687,7 +91035,7 @@
     </row>
     <row r="210" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>708</v>
       </c>
       <c r="V210">
         <v>2.6</v>
@@ -90716,7 +91064,7 @@
     </row>
     <row r="211" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>709</v>
       </c>
       <c r="O211">
         <v>2.44</v>
@@ -90745,7 +91093,7 @@
     </row>
     <row r="212" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>710</v>
       </c>
       <c r="AD212">
         <v>1.59</v>
@@ -90759,7 +91107,7 @@
     </row>
     <row r="213" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>711</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -90800,7 +91148,7 @@
     </row>
     <row r="214" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>712</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -90841,7 +91189,7 @@
     </row>
     <row r="215" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>713</v>
       </c>
       <c r="AC215">
         <v>2.04</v>
@@ -90870,7 +91218,7 @@
     </row>
     <row r="216" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>714</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -90911,7 +91259,7 @@
     </row>
     <row r="217" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>715</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -90952,7 +91300,7 @@
     </row>
     <row r="218" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>716</v>
       </c>
       <c r="V218">
         <v>3.38</v>
@@ -90978,7 +91326,7 @@
     </row>
     <row r="219" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>717</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -91019,7 +91367,7 @@
     </row>
     <row r="220" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>718</v>
       </c>
       <c r="AF220">
         <v>4.4000000000000004</v>
@@ -91036,7 +91384,7 @@
     </row>
     <row r="221" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>719</v>
       </c>
       <c r="AC221">
         <v>4.04</v>
@@ -91062,7 +91410,7 @@
     </row>
     <row r="222" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>720</v>
       </c>
       <c r="AQ222">
         <v>3.83</v>
@@ -91091,7 +91439,7 @@
     </row>
     <row r="223" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>721</v>
       </c>
       <c r="AQ223">
         <v>3.53</v>
@@ -91120,7 +91468,7 @@
     </row>
     <row r="224" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>722</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -91161,7 +91509,7 @@
     </row>
     <row r="225" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>723</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -91202,7 +91550,7 @@
     </row>
     <row r="226" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>724</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -91243,7 +91591,7 @@
     </row>
     <row r="227" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>725</v>
       </c>
       <c r="O227">
         <v>3.57</v>
@@ -91269,7 +91617,7 @@
     </row>
     <row r="228" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>726</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -91310,7 +91658,7 @@
     </row>
     <row r="229" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>727</v>
       </c>
       <c r="F229">
         <v>2.91</v>
@@ -91339,7 +91687,7 @@
     </row>
     <row r="230" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>728</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -91380,7 +91728,7 @@
     </row>
     <row r="231" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>729</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -91421,7 +91769,7 @@
     </row>
     <row r="232" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>730</v>
       </c>
       <c r="AC232">
         <v>4.28</v>
@@ -91447,7 +91795,7 @@
     </row>
     <row r="233" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>731</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -91488,7 +91836,7 @@
     </row>
     <row r="234" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>732</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -91529,7 +91877,7 @@
     </row>
     <row r="235" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>733</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -91567,7 +91915,7 @@
     </row>
     <row r="236" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>734</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -91608,7 +91956,7 @@
     </row>
     <row r="237" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>735</v>
       </c>
       <c r="AC237">
         <v>3.78</v>
@@ -91637,7 +91985,7 @@
     </row>
     <row r="238" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>736</v>
       </c>
       <c r="AQ238">
         <v>4.1100000000000003</v>
@@ -91666,7 +92014,7 @@
     </row>
     <row r="239" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>737</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -91707,7 +92055,7 @@
     </row>
     <row r="240" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>738</v>
       </c>
       <c r="AC240">
         <v>4.3099999999999996</v>
@@ -91733,7 +92081,7 @@
     </row>
     <row r="241" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>739</v>
       </c>
       <c r="AD241">
         <v>1.68</v>
@@ -91753,7 +92101,7 @@
     </row>
     <row r="242" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>740</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -91794,7 +92142,7 @@
     </row>
     <row r="243" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>741</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -91835,7 +92183,7 @@
     </row>
     <row r="244" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>742</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -91876,7 +92224,7 @@
     </row>
     <row r="245" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>743</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -91917,7 +92265,7 @@
     </row>
     <row r="246" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>744</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -91958,7 +92306,7 @@
     </row>
     <row r="247" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>745</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -91999,7 +92347,7 @@
     </row>
     <row r="248" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>246</v>
+        <v>746</v>
       </c>
       <c r="AC248">
         <v>2.96</v>
@@ -92028,7 +92376,7 @@
     </row>
     <row r="249" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>747</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -92069,7 +92417,7 @@
     </row>
     <row r="250" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>748</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -92110,7 +92458,7 @@
     </row>
     <row r="251" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>749</v>
       </c>
       <c r="AC251">
         <v>4.24</v>
@@ -92136,7 +92484,7 @@
     </row>
     <row r="252" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -92177,7 +92525,7 @@
     </row>
     <row r="253" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>751</v>
       </c>
       <c r="AS253">
         <v>2.04</v>
@@ -92197,7 +92545,7 @@
     </row>
     <row r="254" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -92238,7 +92586,7 @@
     </row>
     <row r="255" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>253</v>
+        <v>753</v>
       </c>
       <c r="B255">
         <v>1.5489999999999999</v>
@@ -92267,7 +92615,7 @@
     </row>
     <row r="256" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>754</v>
       </c>
       <c r="V256">
         <v>3.68</v>
@@ -92293,7 +92641,7 @@
     </row>
     <row r="257" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>755</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -92334,7 +92682,7 @@
     </row>
     <row r="258" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>256</v>
+        <v>756</v>
       </c>
       <c r="AC258">
         <v>3.65</v>
@@ -92357,7 +92705,7 @@
     </row>
     <row r="259" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>257</v>
+        <v>757</v>
       </c>
       <c r="AE259">
         <v>1.72</v>
@@ -92377,7 +92725,7 @@
     </row>
     <row r="260" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>758</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -92418,7 +92766,7 @@
     </row>
     <row r="261" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>759</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -92456,7 +92804,7 @@
     </row>
     <row r="262" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -92497,7 +92845,7 @@
     </row>
     <row r="263" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>761</v>
       </c>
       <c r="AM263">
         <v>3.16</v>
@@ -92514,7 +92862,7 @@
     </row>
     <row r="264" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>762</v>
       </c>
       <c r="AQ264">
         <v>3.71</v>
@@ -92543,7 +92891,7 @@
     </row>
     <row r="265" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>763</v>
       </c>
       <c r="AC265">
         <v>3.55</v>
@@ -92566,7 +92914,7 @@
     </row>
     <row r="266" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>764</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -92607,7 +92955,7 @@
     </row>
     <row r="267" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>765</v>
       </c>
       <c r="AT267">
         <v>4.28</v>
@@ -92624,7 +92972,7 @@
     </row>
     <row r="268" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>766</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -92665,7 +93013,7 @@
     </row>
     <row r="269" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>767</v>
       </c>
       <c r="V269">
         <v>3.79</v>
@@ -92682,7 +93030,7 @@
     </row>
     <row r="270" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>768</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -92717,7 +93065,7 @@
     </row>
     <row r="271" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>769</v>
       </c>
       <c r="V271">
         <v>3.13</v>
@@ -92737,7 +93085,7 @@
     </row>
     <row r="272" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>770</v>
       </c>
       <c r="V272">
         <v>2.72</v>
@@ -92763,7 +93111,7 @@
     </row>
     <row r="273" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>771</v>
       </c>
       <c r="AQ273">
         <v>4.2</v>
@@ -92792,7 +93140,7 @@
     </row>
     <row r="274" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>772</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -92833,7 +93181,7 @@
     </row>
     <row r="275" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>773</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -92874,7 +93222,7 @@
     </row>
     <row r="276" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>774</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -92915,7 +93263,7 @@
     </row>
     <row r="277" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>775</v>
       </c>
       <c r="AC277">
         <v>1.86</v>
@@ -92935,7 +93283,7 @@
     </row>
     <row r="278" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>776</v>
       </c>
       <c r="B278">
         <v>1.34</v>
@@ -92961,7 +93309,7 @@
     </row>
     <row r="279" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>777</v>
       </c>
       <c r="AC279">
         <v>3.24</v>
@@ -92984,7 +93332,7 @@
     </row>
     <row r="280" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>778</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -93025,7 +93373,7 @@
     </row>
     <row r="281" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>779</v>
       </c>
       <c r="O281">
         <v>2.5499999999999998</v>
@@ -93054,7 +93402,7 @@
     </row>
     <row r="282" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>780</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -93092,7 +93440,7 @@
     </row>
     <row r="283" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>781</v>
       </c>
       <c r="V283">
         <v>3.49</v>
@@ -93112,7 +93460,7 @@
     </row>
     <row r="284" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>782</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -93153,7 +93501,7 @@
     </row>
     <row r="285" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>783</v>
       </c>
       <c r="V285">
         <v>3.34</v>
@@ -93176,7 +93524,7 @@
     </row>
     <row r="286" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>784</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -93214,7 +93562,7 @@
     </row>
     <row r="287" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>785</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -93255,7 +93603,7 @@
     </row>
     <row r="288" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>786</v>
       </c>
       <c r="AC288">
         <v>4.1399999999999997</v>
@@ -93275,7 +93623,7 @@
     </row>
     <row r="289" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>787</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -93307,7 +93655,7 @@
     </row>
     <row r="290" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>788</v>
       </c>
       <c r="AD290">
         <v>1.43</v>
@@ -93327,7 +93675,7 @@
     </row>
     <row r="291" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>789</v>
       </c>
       <c r="V291">
         <v>4.1900000000000004</v>
@@ -93356,7 +93704,7 @@
     </row>
     <row r="292" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>790</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -93394,7 +93742,7 @@
     </row>
     <row r="293" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>791</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -93435,7 +93783,7 @@
     </row>
     <row r="294" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>792</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -93476,7 +93824,7 @@
     </row>
     <row r="295" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>793</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -93517,7 +93865,7 @@
     </row>
     <row r="296" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>794</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -93558,7 +93906,7 @@
     </row>
     <row r="297" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>795</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -93599,7 +93947,7 @@
     </row>
     <row r="298" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>796</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -93640,7 +93988,7 @@
     </row>
     <row r="299" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>797</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -93681,7 +94029,7 @@
     </row>
     <row r="300" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>798</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -93722,7 +94070,7 @@
     </row>
     <row r="301" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>299</v>
+        <v>799</v>
       </c>
       <c r="F301">
         <v>4.2469999999999999</v>
@@ -93751,7 +94099,7 @@
     </row>
     <row r="302" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -93792,7 +94140,7 @@
     </row>
     <row r="303" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>301</v>
+        <v>801</v>
       </c>
       <c r="B303">
         <v>1.919</v>

--- a/Linear_data/Data/Amb_linear_data.xlsx
+++ b/Linear_data/Data/Amb_linear_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/dtl474_austin_eid_utexas_edu/Documents/Ambystoma/Analysis/Ambystoma/Linear_data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C3DC703D-3FAD-9444-B6D7-183ED86BEC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A33D51C4-9E76-BE4B-9A5B-EE35F0CD729C}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{C3DC703D-3FAD-9444-B6D7-183ED86BEC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B64CBF3-D4F4-7C44-A316-3E8056597DF1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2114,33 +2114,6 @@
     <t>TMM_41229-11249</t>
   </si>
   <si>
-    <t>TMM_41229-25000</t>
-  </si>
-  <si>
-    <t>TMM_41229-25015</t>
-  </si>
-  <si>
-    <t>TMM_41229-25017</t>
-  </si>
-  <si>
-    <t>TMM_41229-25018</t>
-  </si>
-  <si>
-    <t>TMM_41229-25019</t>
-  </si>
-  <si>
-    <t>TMM_41229-25023</t>
-  </si>
-  <si>
-    <t>TMM_41229-25024</t>
-  </si>
-  <si>
-    <t>TMM_41229-25025</t>
-  </si>
-  <si>
-    <t>TMM_41229-25031</t>
-  </si>
-  <si>
     <t>TMM_41229-25033</t>
   </si>
   <si>
@@ -2439,6 +2412,33 @@
   </si>
   <si>
     <t>TMM_41229-25300</t>
+  </si>
+  <si>
+    <t>TMM_41229-29127</t>
+  </si>
+  <si>
+    <t>TMM_41229-29142</t>
+  </si>
+  <si>
+    <t>TMM_41229-29144</t>
+  </si>
+  <si>
+    <t>TMM_41229-29145</t>
+  </si>
+  <si>
+    <t>TMM_41229-29146</t>
+  </si>
+  <si>
+    <t>TMM_41229-29150</t>
+  </si>
+  <si>
+    <t>TMM_41229-29151</t>
+  </si>
+  <si>
+    <t>TMM_41229-29152</t>
+  </si>
+  <si>
+    <t>TMM_41229-29158</t>
   </si>
 </sst>
 </file>
@@ -60555,8 +60555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8797C-CF76-3C4E-BD49-E486D7404931}">
   <dimension ref="A1:BD303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -90564,7 +90564,7 @@
     </row>
     <row r="195" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>693</v>
+        <v>793</v>
       </c>
       <c r="B195">
         <v>1.99</v>
@@ -90596,7 +90596,7 @@
     </row>
     <row r="196" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>694</v>
+        <v>794</v>
       </c>
       <c r="AC196">
         <v>4.37</v>
@@ -90625,7 +90625,7 @@
     </row>
     <row r="197" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>695</v>
+        <v>795</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -90666,7 +90666,7 @@
     </row>
     <row r="198" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>696</v>
+        <v>796</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -90704,7 +90704,7 @@
     </row>
     <row r="199" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>697</v>
+        <v>797</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -90742,7 +90742,7 @@
     </row>
     <row r="200" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>698</v>
+        <v>798</v>
       </c>
       <c r="AD200">
         <v>2.16</v>
@@ -90762,7 +90762,7 @@
     </row>
     <row r="201" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>699</v>
+        <v>799</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -90803,7 +90803,7 @@
     </row>
     <row r="202" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -90838,7 +90838,7 @@
     </row>
     <row r="203" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>701</v>
+        <v>801</v>
       </c>
       <c r="AC203">
         <v>5.0199999999999996</v>
@@ -90861,7 +90861,7 @@
     </row>
     <row r="204" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="AC204">
         <v>4.08</v>
@@ -90890,7 +90890,7 @@
     </row>
     <row r="205" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -90931,7 +90931,7 @@
     </row>
     <row r="206" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="AC206">
         <v>4.79</v>
@@ -90954,7 +90954,7 @@
     </row>
     <row r="207" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -90995,7 +90995,7 @@
     </row>
     <row r="208" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B208">
         <v>1.665</v>
@@ -91015,7 +91015,7 @@
     </row>
     <row r="209" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="O209">
         <v>3.13</v>
@@ -91035,7 +91035,7 @@
     </row>
     <row r="210" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="V210">
         <v>2.6</v>
@@ -91064,7 +91064,7 @@
     </row>
     <row r="211" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="O211">
         <v>2.44</v>
@@ -91093,7 +91093,7 @@
     </row>
     <row r="212" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="AD212">
         <v>1.59</v>
@@ -91107,7 +91107,7 @@
     </row>
     <row r="213" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -91148,7 +91148,7 @@
     </row>
     <row r="214" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -91189,7 +91189,7 @@
     </row>
     <row r="215" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="AC215">
         <v>2.04</v>
@@ -91218,7 +91218,7 @@
     </row>
     <row r="216" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -91259,7 +91259,7 @@
     </row>
     <row r="217" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -91300,7 +91300,7 @@
     </row>
     <row r="218" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="V218">
         <v>3.38</v>
@@ -91326,7 +91326,7 @@
     </row>
     <row r="219" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -91367,7 +91367,7 @@
     </row>
     <row r="220" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="AF220">
         <v>4.4000000000000004</v>
@@ -91384,7 +91384,7 @@
     </row>
     <row r="221" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="AC221">
         <v>4.04</v>
@@ -91410,7 +91410,7 @@
     </row>
     <row r="222" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="AQ222">
         <v>3.83</v>
@@ -91439,7 +91439,7 @@
     </row>
     <row r="223" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="AQ223">
         <v>3.53</v>
@@ -91468,7 +91468,7 @@
     </row>
     <row r="224" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -91509,7 +91509,7 @@
     </row>
     <row r="225" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -91550,7 +91550,7 @@
     </row>
     <row r="226" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -91591,7 +91591,7 @@
     </row>
     <row r="227" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="O227">
         <v>3.57</v>
@@ -91617,7 +91617,7 @@
     </row>
     <row r="228" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -91658,7 +91658,7 @@
     </row>
     <row r="229" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F229">
         <v>2.91</v>
@@ -91687,7 +91687,7 @@
     </row>
     <row r="230" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -91728,7 +91728,7 @@
     </row>
     <row r="231" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -91769,7 +91769,7 @@
     </row>
     <row r="232" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="AC232">
         <v>4.28</v>
@@ -91795,7 +91795,7 @@
     </row>
     <row r="233" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -91836,7 +91836,7 @@
     </row>
     <row r="234" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -91877,7 +91877,7 @@
     </row>
     <row r="235" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -91915,7 +91915,7 @@
     </row>
     <row r="236" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -91956,7 +91956,7 @@
     </row>
     <row r="237" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="AC237">
         <v>3.78</v>
@@ -91985,7 +91985,7 @@
     </row>
     <row r="238" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="AQ238">
         <v>4.1100000000000003</v>
@@ -92014,7 +92014,7 @@
     </row>
     <row r="239" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -92055,7 +92055,7 @@
     </row>
     <row r="240" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="AC240">
         <v>4.3099999999999996</v>
@@ -92081,7 +92081,7 @@
     </row>
     <row r="241" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="AD241">
         <v>1.68</v>
@@ -92101,7 +92101,7 @@
     </row>
     <row r="242" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -92142,7 +92142,7 @@
     </row>
     <row r="243" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -92183,7 +92183,7 @@
     </row>
     <row r="244" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -92224,7 +92224,7 @@
     </row>
     <row r="245" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -92265,7 +92265,7 @@
     </row>
     <row r="246" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -92306,7 +92306,7 @@
     </row>
     <row r="247" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -92347,7 +92347,7 @@
     </row>
     <row r="248" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="AC248">
         <v>2.96</v>
@@ -92376,7 +92376,7 @@
     </row>
     <row r="249" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -92417,7 +92417,7 @@
     </row>
     <row r="250" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -92458,7 +92458,7 @@
     </row>
     <row r="251" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="AC251">
         <v>4.24</v>
@@ -92484,7 +92484,7 @@
     </row>
     <row r="252" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -92525,7 +92525,7 @@
     </row>
     <row r="253" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="AS253">
         <v>2.04</v>
@@ -92545,7 +92545,7 @@
     </row>
     <row r="254" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -92586,7 +92586,7 @@
     </row>
     <row r="255" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B255">
         <v>1.5489999999999999</v>
@@ -92615,7 +92615,7 @@
     </row>
     <row r="256" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="V256">
         <v>3.68</v>
@@ -92641,7 +92641,7 @@
     </row>
     <row r="257" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -92682,7 +92682,7 @@
     </row>
     <row r="258" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="AC258">
         <v>3.65</v>
@@ -92705,7 +92705,7 @@
     </row>
     <row r="259" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="AE259">
         <v>1.72</v>
@@ -92725,7 +92725,7 @@
     </row>
     <row r="260" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -92766,7 +92766,7 @@
     </row>
     <row r="261" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -92804,7 +92804,7 @@
     </row>
     <row r="262" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -92845,7 +92845,7 @@
     </row>
     <row r="263" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="AM263">
         <v>3.16</v>
@@ -92862,7 +92862,7 @@
     </row>
     <row r="264" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="AQ264">
         <v>3.71</v>
@@ -92891,7 +92891,7 @@
     </row>
     <row r="265" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="AC265">
         <v>3.55</v>
@@ -92914,7 +92914,7 @@
     </row>
     <row r="266" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -92955,7 +92955,7 @@
     </row>
     <row r="267" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="AT267">
         <v>4.28</v>
@@ -92972,7 +92972,7 @@
     </row>
     <row r="268" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -93013,7 +93013,7 @@
     </row>
     <row r="269" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="V269">
         <v>3.79</v>
@@ -93030,7 +93030,7 @@
     </row>
     <row r="270" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -93065,7 +93065,7 @@
     </row>
     <row r="271" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="V271">
         <v>3.13</v>
@@ -93085,7 +93085,7 @@
     </row>
     <row r="272" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="V272">
         <v>2.72</v>
@@ -93111,7 +93111,7 @@
     </row>
     <row r="273" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="AQ273">
         <v>4.2</v>
@@ -93140,7 +93140,7 @@
     </row>
     <row r="274" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -93181,7 +93181,7 @@
     </row>
     <row r="275" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -93222,7 +93222,7 @@
     </row>
     <row r="276" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -93263,7 +93263,7 @@
     </row>
     <row r="277" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="AC277">
         <v>1.86</v>
@@ -93283,7 +93283,7 @@
     </row>
     <row r="278" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="B278">
         <v>1.34</v>
@@ -93309,7 +93309,7 @@
     </row>
     <row r="279" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="AC279">
         <v>3.24</v>
@@ -93332,7 +93332,7 @@
     </row>
     <row r="280" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -93373,7 +93373,7 @@
     </row>
     <row r="281" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="O281">
         <v>2.5499999999999998</v>
@@ -93402,7 +93402,7 @@
     </row>
     <row r="282" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -93440,7 +93440,7 @@
     </row>
     <row r="283" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="V283">
         <v>3.49</v>
@@ -93460,7 +93460,7 @@
     </row>
     <row r="284" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -93501,7 +93501,7 @@
     </row>
     <row r="285" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="V285">
         <v>3.34</v>
@@ -93524,7 +93524,7 @@
     </row>
     <row r="286" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -93562,7 +93562,7 @@
     </row>
     <row r="287" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -93603,7 +93603,7 @@
     </row>
     <row r="288" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="AC288">
         <v>4.1399999999999997</v>
@@ -93623,7 +93623,7 @@
     </row>
     <row r="289" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -93655,7 +93655,7 @@
     </row>
     <row r="290" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="AD290">
         <v>1.43</v>
@@ -93675,7 +93675,7 @@
     </row>
     <row r="291" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="V291">
         <v>4.1900000000000004</v>
@@ -93704,7 +93704,7 @@
     </row>
     <row r="292" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -93742,7 +93742,7 @@
     </row>
     <row r="293" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -93783,7 +93783,7 @@
     </row>
     <row r="294" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -93824,7 +93824,7 @@
     </row>
     <row r="295" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -93865,7 +93865,7 @@
     </row>
     <row r="296" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -93906,7 +93906,7 @@
     </row>
     <row r="297" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -93947,7 +93947,7 @@
     </row>
     <row r="298" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -93988,7 +93988,7 @@
     </row>
     <row r="299" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -94029,7 +94029,7 @@
     </row>
     <row r="300" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -94070,7 +94070,7 @@
     </row>
     <row r="301" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F301">
         <v>4.2469999999999999</v>
@@ -94099,7 +94099,7 @@
     </row>
     <row r="302" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -94140,7 +94140,7 @@
     </row>
     <row r="303" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B303">
         <v>1.919</v>

--- a/Linear_data/Data/Amb_linear_data.xlsx
+++ b/Linear_data/Data/Amb_linear_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/dtl474_austin_eid_utexas_edu/Documents/Ambystoma/Analysis/Ambystoma/Linear_data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{C3DC703D-3FAD-9444-B6D7-183ED86BEC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B64CBF3-D4F4-7C44-A316-3E8056597DF1}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C3DC703D-3FAD-9444-B6D7-183ED86BEC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{924B44E1-7A05-EA45-9CB3-D7BBF3431340}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60555,8 +60555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8797C-CF76-3C4E-BD49-E486D7404931}">
   <dimension ref="A1:BD303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="AM106" workbookViewId="0">
+      <selection activeCell="AY141" sqref="AY141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -82999,7 +82999,7 @@
         <v>75</v>
       </c>
       <c r="AY140">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="AZ140">
         <v>160</v>

--- a/Linear_data/Data/Amb_linear_data.xlsx
+++ b/Linear_data/Data/Amb_linear_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utexas-my.sharepoint.com/personal/dtl474_austin_eid_utexas_edu/Documents/Ambystoma/Analysis/Ambystoma/Linear_data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C3DC703D-3FAD-9444-B6D7-183ED86BEC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{924B44E1-7A05-EA45-9CB3-D7BBF3431340}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{C3DC703D-3FAD-9444-B6D7-183ED86BEC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4578C2C6-6CEC-D84B-8E22-4FF43CB7B37D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="811">
   <si>
     <t>Specimen</t>
   </si>
@@ -2440,6 +2440,33 @@
   <si>
     <t>TMM_41229-29158</t>
   </si>
+  <si>
+    <t>41229-29127</t>
+  </si>
+  <si>
+    <t>41229-29142</t>
+  </si>
+  <si>
+    <t>41229-29144</t>
+  </si>
+  <si>
+    <t>41229-29145</t>
+  </si>
+  <si>
+    <t>41229-29146</t>
+  </si>
+  <si>
+    <t>41229-29150</t>
+  </si>
+  <si>
+    <t>41229-29151</t>
+  </si>
+  <si>
+    <t>41229-29152</t>
+  </si>
+  <si>
+    <t>41229-29158</t>
+  </si>
 </sst>
 </file>
 
@@ -60555,8 +60582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8797C-CF76-3C4E-BD49-E486D7404931}">
   <dimension ref="A1:BD303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM106" workbookViewId="0">
-      <selection activeCell="AY141" sqref="AY141"/>
+    <sheetView tabSelected="1" topLeftCell="AW175" workbookViewId="0">
+      <selection activeCell="BA198" sqref="BA198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -90591,7 +90618,7 @@
         <v>1.85</v>
       </c>
       <c r="BD195" t="s">
-        <v>460</v>
+        <v>802</v>
       </c>
     </row>
     <row r="196" spans="1:56" x14ac:dyDescent="0.2">
@@ -90620,7 +90647,7 @@
         <v>4.7</v>
       </c>
       <c r="BD196" t="s">
-        <v>461</v>
+        <v>803</v>
       </c>
     </row>
     <row r="197" spans="1:56" x14ac:dyDescent="0.2">
@@ -90661,7 +90688,7 @@
         <v>5.13</v>
       </c>
       <c r="BD197" t="s">
-        <v>462</v>
+        <v>804</v>
       </c>
     </row>
     <row r="198" spans="1:56" x14ac:dyDescent="0.2">
@@ -90699,7 +90726,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="BD198" t="s">
-        <v>463</v>
+        <v>805</v>
       </c>
     </row>
     <row r="199" spans="1:56" x14ac:dyDescent="0.2">
@@ -90737,7 +90764,7 @@
         <v>4.29</v>
       </c>
       <c r="BD199" t="s">
-        <v>464</v>
+        <v>806</v>
       </c>
     </row>
     <row r="200" spans="1:56" x14ac:dyDescent="0.2">
@@ -90757,7 +90784,7 @@
         <v>5.08</v>
       </c>
       <c r="BD200" t="s">
-        <v>465</v>
+        <v>807</v>
       </c>
     </row>
     <row r="201" spans="1:56" x14ac:dyDescent="0.2">
@@ -90798,7 +90825,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="BD201" t="s">
-        <v>466</v>
+        <v>808</v>
       </c>
     </row>
     <row r="202" spans="1:56" x14ac:dyDescent="0.2">
@@ -90833,7 +90860,7 @@
         <v>3.57</v>
       </c>
       <c r="BD202" t="s">
-        <v>467</v>
+        <v>809</v>
       </c>
     </row>
     <row r="203" spans="1:56" x14ac:dyDescent="0.2">
@@ -90856,7 +90883,7 @@
         <v>6.66</v>
       </c>
       <c r="BD203" t="s">
-        <v>468</v>
+        <v>810</v>
       </c>
     </row>
     <row r="204" spans="1:56" x14ac:dyDescent="0.2">
